--- a/downloads/competitor-ai-velocity-audit.xlsx
+++ b/downloads/competitor-ai-velocity-audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f45bcb36192c161/Desktop/book/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{288C993F-A588-4E6E-B50A-DA4EB78875C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{A5A30CCA-9E9D-4CEB-B75E-3833A87286BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B79DDF9D-DA48-44AF-8A9A-BB496217827E}"/>
   </bookViews>
@@ -261,14 +261,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,6 +276,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -292,9 +295,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +632,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,15 +691,15 @@
     <row r="4" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -707,15 +707,15 @@
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -723,99 +723,99 @@
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13" t="str">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11" t="str">
         <f t="shared" ref="H7:H10" si="0">IF(AND(ISNUMBER(D7),ISNUMBER(E7)),D7*E7,"")</f>
         <v/>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13" t="str">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13" t="str">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13" t="str">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -823,13 +823,13 @@
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -837,15 +837,15 @@
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="8"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -853,15 +853,15 @@
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -869,15 +869,15 @@
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -885,15 +885,15 @@
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -901,13 +901,13 @@
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -915,29 +915,29 @@
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="8"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
